--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N2">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O2">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P2">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q2">
-        <v>2.900823773932333</v>
+        <v>2.190032645575556</v>
       </c>
       <c r="R2">
-        <v>26.107413965391</v>
+        <v>19.71029381018</v>
       </c>
       <c r="S2">
-        <v>0.0001246158635877368</v>
+        <v>0.0002878206827819285</v>
       </c>
       <c r="T2">
-        <v>0.0001246158635877368</v>
+        <v>0.0002878206827819285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q3">
-        <v>37.68274208751066</v>
+        <v>25.96409000574889</v>
       </c>
       <c r="R3">
-        <v>339.1446787875959</v>
+        <v>233.67681005174</v>
       </c>
       <c r="S3">
-        <v>0.001618804799446131</v>
+        <v>0.003412278866419426</v>
       </c>
       <c r="T3">
-        <v>0.001618804799446131</v>
+        <v>0.003412278866419425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N4">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q4">
-        <v>0.9024627271940001</v>
+        <v>4.990297340721667</v>
       </c>
       <c r="R4">
-        <v>8.122164544746001</v>
+        <v>44.912676066495</v>
       </c>
       <c r="S4">
-        <v>3.876870188242184E-05</v>
+        <v>0.0006558398984568014</v>
       </c>
       <c r="T4">
-        <v>3.876870188242184E-05</v>
+        <v>0.0006558398984568014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.385388</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N5">
-        <v>4.156164</v>
+        <v>0.501316</v>
       </c>
       <c r="O5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q5">
-        <v>26.35124210053199</v>
+        <v>0.5419724490911111</v>
       </c>
       <c r="R5">
-        <v>237.1611789047879</v>
+        <v>4.877752041819999</v>
       </c>
       <c r="S5">
-        <v>0.001132017332619918</v>
+        <v>7.122765072088783E-05</v>
       </c>
       <c r="T5">
-        <v>0.001132017332619918</v>
+        <v>7.122765072088783E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013399</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N6">
-        <v>0.040197</v>
+        <v>5.943388</v>
       </c>
       <c r="O6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q6">
-        <v>0.254860221761</v>
+        <v>6.425393464917778</v>
       </c>
       <c r="R6">
-        <v>2.293741995849</v>
+        <v>57.82854118425999</v>
       </c>
       <c r="S6">
-        <v>1.094848536278233E-05</v>
+        <v>0.0008444445510670238</v>
       </c>
       <c r="T6">
-        <v>1.094848536278233E-05</v>
+        <v>0.0008444445510670237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I7">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J7">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1525076666666667</v>
+        <v>0.380773</v>
       </c>
       <c r="N7">
-        <v>0.457523</v>
+        <v>1.142319</v>
       </c>
       <c r="O7">
-        <v>0.04260145387029884</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P7">
-        <v>0.04260145387029883</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q7">
-        <v>0.4946278611205556</v>
+        <v>1.234960436278333</v>
       </c>
       <c r="R7">
-        <v>4.451650750084999</v>
+        <v>11.114643926505</v>
       </c>
       <c r="S7">
-        <v>2.124861172953522E-05</v>
+        <v>0.0001623022180497608</v>
       </c>
       <c r="T7">
-        <v>2.124861172953522E-05</v>
+        <v>0.0001623022180497608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.243298333333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H8">
-        <v>9.729894999999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.981129333333333</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N8">
-        <v>5.943388</v>
+        <v>0.501316</v>
       </c>
       <c r="O8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q8">
-        <v>6.425393464917778</v>
+        <v>101.6665421226631</v>
       </c>
       <c r="R8">
-        <v>57.82854118425999</v>
+        <v>914.998879103968</v>
       </c>
       <c r="S8">
-        <v>0.0002760270936542618</v>
+        <v>0.01336132300536205</v>
       </c>
       <c r="T8">
-        <v>0.0002760270936542618</v>
+        <v>0.01336132300536206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.243298333333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H9">
-        <v>9.729894999999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04744600000000001</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N9">
-        <v>0.142338</v>
+        <v>5.943388</v>
       </c>
       <c r="O9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q9">
-        <v>0.1538815327233334</v>
+        <v>1205.315023764114</v>
       </c>
       <c r="R9">
-        <v>1.38493379451</v>
+        <v>10847.83521387702</v>
       </c>
       <c r="S9">
-        <v>6.610563613979154E-06</v>
+        <v>0.1584061286976533</v>
       </c>
       <c r="T9">
-        <v>6.610563613979153E-06</v>
+        <v>0.1584061286976533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.243298333333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H10">
-        <v>9.729894999999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.385388</v>
+        <v>0.380773</v>
       </c>
       <c r="N10">
-        <v>4.156164</v>
+        <v>1.142319</v>
       </c>
       <c r="O10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q10">
-        <v>4.493226591419999</v>
+        <v>231.6615123615013</v>
       </c>
       <c r="R10">
-        <v>40.43903932277999</v>
+        <v>2084.953611253512</v>
       </c>
       <c r="S10">
-        <v>0.0001930235531771561</v>
+        <v>0.03044565330881556</v>
       </c>
       <c r="T10">
-        <v>0.0001930235531771561</v>
+        <v>0.03044565330881556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.243298333333333</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H11">
-        <v>9.729894999999999</v>
+        <v>9.136198</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.013399</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N11">
-        <v>0.040197</v>
+        <v>0.501316</v>
       </c>
       <c r="O11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q11">
-        <v>0.04345695436833334</v>
+        <v>0.5089024707297778</v>
       </c>
       <c r="R11">
-        <v>0.391112589315</v>
+        <v>4.580122236568</v>
       </c>
       <c r="S11">
-        <v>1.866857940895053E-06</v>
+        <v>6.688149461642434E-05</v>
       </c>
       <c r="T11">
-        <v>1.866857940895053E-06</v>
+        <v>6.688149461642433E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2517.581258333333</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H12">
-        <v>7552.743774999999</v>
+        <v>9.136198</v>
       </c>
       <c r="I12">
-        <v>0.3871709269072258</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J12">
-        <v>0.3871709269072258</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1525076666666667</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N12">
-        <v>0.457523</v>
+        <v>5.943388</v>
       </c>
       <c r="O12">
-        <v>0.04260145387029884</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P12">
-        <v>0.04260145387029883</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q12">
-        <v>383.9504433521472</v>
+        <v>6.033329950980445</v>
       </c>
       <c r="R12">
-        <v>3455.553990169325</v>
+        <v>54.299969558824</v>
       </c>
       <c r="S12">
-        <v>0.01649404438255902</v>
+        <v>0.0007929183838643113</v>
       </c>
       <c r="T12">
-        <v>0.01649404438255902</v>
+        <v>0.000792918383864311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2517.581258333333</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H13">
-        <v>7552.743774999999</v>
+        <v>9.136198</v>
       </c>
       <c r="I13">
-        <v>0.3871709269072258</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J13">
-        <v>0.3871709269072258</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.981129333333333</v>
+        <v>0.380773</v>
       </c>
       <c r="N13">
-        <v>5.943388</v>
+        <v>1.142319</v>
       </c>
       <c r="O13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q13">
-        <v>4987.65407993441</v>
+        <v>1.159605840351333</v>
       </c>
       <c r="R13">
-        <v>44888.88671940969</v>
+        <v>10.436452563162</v>
       </c>
       <c r="S13">
-        <v>0.2142635571430697</v>
+        <v>0.0001523988902184236</v>
       </c>
       <c r="T13">
-        <v>0.2142635571430697</v>
+        <v>0.0001523988902184236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>767.514053</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04744600000000001</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N14">
-        <v>0.142338</v>
+        <v>0.501316</v>
       </c>
       <c r="O14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q14">
-        <v>119.4491603828833</v>
+        <v>42.75189722152756</v>
       </c>
       <c r="R14">
-        <v>1075.04244344595</v>
+        <v>384.767074993748</v>
       </c>
       <c r="S14">
-        <v>0.005131390748278636</v>
+        <v>0.005618583025865849</v>
       </c>
       <c r="T14">
-        <v>0.005131390748278635</v>
+        <v>0.005618583025865849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>767.514053</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.385388</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N15">
-        <v>4.156164</v>
+        <v>5.943388</v>
       </c>
       <c r="O15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q15">
-        <v>3487.826864319899</v>
+        <v>506.8482013812849</v>
       </c>
       <c r="R15">
-        <v>31390.44177887909</v>
+        <v>4561.633812431563</v>
       </c>
       <c r="S15">
-        <v>0.1498328028912077</v>
+        <v>0.06661151635482367</v>
       </c>
       <c r="T15">
-        <v>0.1498328028912077</v>
+        <v>0.06661151635482365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>767.514053</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013399</v>
+        <v>0.380773</v>
       </c>
       <c r="N16">
-        <v>0.040197</v>
+        <v>1.142319</v>
       </c>
       <c r="O16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q16">
-        <v>33.73307128040833</v>
+        <v>97.41620950098968</v>
       </c>
       <c r="R16">
-        <v>303.597641523675</v>
+        <v>876.745885508907</v>
       </c>
       <c r="S16">
-        <v>0.001449131742110724</v>
+        <v>0.01280273149774604</v>
       </c>
       <c r="T16">
-        <v>0.001449131742110724</v>
+        <v>0.01280273149774604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.06326066666667</v>
+        <v>2125.066569</v>
       </c>
       <c r="H17">
-        <v>81.18978200000001</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I17">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J17">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N17">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O17">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P17">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q17">
-        <v>4.127354736665112</v>
+        <v>355.109957368268</v>
       </c>
       <c r="R17">
-        <v>37.146192629986</v>
+        <v>3195.989616314412</v>
       </c>
       <c r="S17">
-        <v>0.0001773061429875253</v>
+        <v>0.04666961955972829</v>
       </c>
       <c r="T17">
-        <v>0.0001773061429875253</v>
+        <v>0.04666961955972829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.06326066666667</v>
+        <v>2125.066569</v>
       </c>
       <c r="H18">
-        <v>81.18978200000001</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I18">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J18">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q18">
-        <v>53.61581956237956</v>
+        <v>4210.031715131924</v>
       </c>
       <c r="R18">
-        <v>482.542376061416</v>
+        <v>37890.28543618732</v>
       </c>
       <c r="S18">
-        <v>0.002303270442269223</v>
+        <v>0.5532950411633669</v>
       </c>
       <c r="T18">
-        <v>0.002303270442269223</v>
+        <v>0.5532950411633668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.06326066666667</v>
+        <v>2125.066569</v>
       </c>
       <c r="H19">
-        <v>81.18978200000001</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I19">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J19">
-        <v>0.004161973991013034</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N19">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q19">
-        <v>1.284043465590667</v>
+        <v>809.167972677837</v>
       </c>
       <c r="R19">
-        <v>11.556391190316</v>
+        <v>7282.511754100535</v>
       </c>
       <c r="S19">
-        <v>5.516094662029752E-05</v>
+        <v>0.1063432907504434</v>
       </c>
       <c r="T19">
-        <v>5.516094662029751E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>27.06326066666667</v>
-      </c>
-      <c r="H20">
-        <v>81.18978200000001</v>
-      </c>
-      <c r="I20">
-        <v>0.004161973991013034</v>
-      </c>
-      <c r="J20">
-        <v>0.004161973991013034</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.385388</v>
-      </c>
-      <c r="N20">
-        <v>4.156164</v>
-      </c>
-      <c r="O20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q20">
-        <v>37.493116568472</v>
-      </c>
-      <c r="R20">
-        <v>337.438049116248</v>
-      </c>
-      <c r="S20">
-        <v>0.001610658717624262</v>
-      </c>
-      <c r="T20">
-        <v>0.001610658717624262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>27.06326066666667</v>
-      </c>
-      <c r="H21">
-        <v>81.18978200000001</v>
-      </c>
-      <c r="I21">
-        <v>0.004161973991013034</v>
-      </c>
-      <c r="J21">
-        <v>0.004161973991013034</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.013399</v>
-      </c>
-      <c r="N21">
-        <v>0.040197</v>
-      </c>
-      <c r="O21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q21">
-        <v>0.3626206296726667</v>
-      </c>
-      <c r="R21">
-        <v>3.263585667054</v>
-      </c>
-      <c r="S21">
-        <v>1.557774151172631E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.557774151172631E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>274.3202006666667</v>
-      </c>
-      <c r="H22">
-        <v>822.960602</v>
-      </c>
-      <c r="I22">
-        <v>0.04218684342756861</v>
-      </c>
-      <c r="J22">
-        <v>0.04218684342756862</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.457523</v>
-      </c>
-      <c r="O22">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P22">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q22">
-        <v>41.83593372320512</v>
-      </c>
-      <c r="R22">
-        <v>376.523403508846</v>
-      </c>
-      <c r="S22">
-        <v>0.001797220864213084</v>
-      </c>
-      <c r="T22">
-        <v>0.001797220864213084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>274.3202006666667</v>
-      </c>
-      <c r="H23">
-        <v>822.960602</v>
-      </c>
-      <c r="I23">
-        <v>0.04218684342756861</v>
-      </c>
-      <c r="J23">
-        <v>0.04218684342756862</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.943388</v>
-      </c>
-      <c r="O23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q23">
-        <v>543.4637962666195</v>
-      </c>
-      <c r="R23">
-        <v>4891.174166399575</v>
-      </c>
-      <c r="S23">
-        <v>0.02334654414688151</v>
-      </c>
-      <c r="T23">
-        <v>0.02334654414688152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>274.3202006666667</v>
-      </c>
-      <c r="H24">
-        <v>822.960602</v>
-      </c>
-      <c r="I24">
-        <v>0.04218684342756861</v>
-      </c>
-      <c r="J24">
-        <v>0.04218684342756862</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.142338</v>
-      </c>
-      <c r="O24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q24">
-        <v>13.01539624083067</v>
-      </c>
-      <c r="R24">
-        <v>117.138566167476</v>
-      </c>
-      <c r="S24">
-        <v>0.0005591256032382241</v>
-      </c>
-      <c r="T24">
-        <v>0.0005591256032382241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>274.3202006666667</v>
-      </c>
-      <c r="H25">
-        <v>822.960602</v>
-      </c>
-      <c r="I25">
-        <v>0.04218684342756861</v>
-      </c>
-      <c r="J25">
-        <v>0.04218684342756862</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.385388</v>
-      </c>
-      <c r="N25">
-        <v>4.156164</v>
-      </c>
-      <c r="O25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q25">
-        <v>380.039914161192</v>
-      </c>
-      <c r="R25">
-        <v>3420.359227450728</v>
-      </c>
-      <c r="S25">
-        <v>0.0163260528014795</v>
-      </c>
-      <c r="T25">
-        <v>0.0163260528014795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>274.3202006666667</v>
-      </c>
-      <c r="H26">
-        <v>822.960602</v>
-      </c>
-      <c r="I26">
-        <v>0.04218684342756861</v>
-      </c>
-      <c r="J26">
-        <v>0.04218684342756862</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.013399</v>
-      </c>
-      <c r="N26">
-        <v>0.040197</v>
-      </c>
-      <c r="O26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q26">
-        <v>3.675616368732667</v>
-      </c>
-      <c r="R26">
-        <v>33.080547318594</v>
-      </c>
-      <c r="S26">
-        <v>0.0001579000117562906</v>
-      </c>
-      <c r="T26">
-        <v>0.0001579000117562906</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>3661.277099333334</v>
-      </c>
-      <c r="H27">
-        <v>10983.831298</v>
-      </c>
-      <c r="I27">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="J27">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.457523</v>
-      </c>
-      <c r="O27">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P27">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q27">
-        <v>558.3728274394283</v>
-      </c>
-      <c r="R27">
-        <v>5025.355446954854</v>
-      </c>
-      <c r="S27">
-        <v>0.02398701800522193</v>
-      </c>
-      <c r="T27">
-        <v>0.02398701800522193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>3661.277099333334</v>
-      </c>
-      <c r="H28">
-        <v>10983.831298</v>
-      </c>
-      <c r="I28">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="J28">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N28">
-        <v>5.943388</v>
-      </c>
-      <c r="O28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q28">
-        <v>7253.463458950848</v>
-      </c>
-      <c r="R28">
-        <v>65281.17113055762</v>
-      </c>
-      <c r="S28">
-        <v>0.3115999741390486</v>
-      </c>
-      <c r="T28">
-        <v>0.3115999741390486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>3661.277099333334</v>
-      </c>
-      <c r="H29">
-        <v>10983.831298</v>
-      </c>
-      <c r="I29">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="J29">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.142338</v>
-      </c>
-      <c r="O29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q29">
-        <v>173.7129532549694</v>
-      </c>
-      <c r="R29">
-        <v>1563.416579294724</v>
-      </c>
-      <c r="S29">
-        <v>0.007462497336368401</v>
-      </c>
-      <c r="T29">
-        <v>0.0074624973363684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>3661.277099333334</v>
-      </c>
-      <c r="H30">
-        <v>10983.831298</v>
-      </c>
-      <c r="I30">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="J30">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.385388</v>
-      </c>
-      <c r="N30">
-        <v>4.156164</v>
-      </c>
-      <c r="O30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q30">
-        <v>5072.289358091208</v>
-      </c>
-      <c r="R30">
-        <v>45650.60422282087</v>
-      </c>
-      <c r="S30">
-        <v>0.2178993858246584</v>
-      </c>
-      <c r="T30">
-        <v>0.2178993858246584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3661.277099333334</v>
-      </c>
-      <c r="H31">
-        <v>10983.831298</v>
-      </c>
-      <c r="I31">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="J31">
-        <v>0.5630563238111778</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.013399</v>
-      </c>
-      <c r="N31">
-        <v>0.040197</v>
-      </c>
-      <c r="O31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q31">
-        <v>49.05745185396734</v>
-      </c>
-      <c r="R31">
-        <v>441.5170666857061</v>
-      </c>
-      <c r="S31">
-        <v>0.002107448505880374</v>
-      </c>
-      <c r="T31">
-        <v>0.002107448505880374</v>
+        <v>0.1063432907504434</v>
       </c>
     </row>
   </sheetData>
